--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QPS-Basavanagudi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VtigerCRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1997E0-ABA5-4792-8B21-1F6C82EABC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655547F-2809-43DF-BE4E-6D4A391B0315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Sri</t>
   </si>
   <si>
-    <t>TYSS4</t>
-  </si>
-  <si>
     <t>Contact Image</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>C:\Users\QPS-Basavanagudi\Pictures\Camera Roll\WIN_20221106_14_02_38_Pro.jpg</t>
+  </si>
+  <si>
+    <t>Infosys55</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -655,10 +655,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -670,6 +673,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
@@ -681,6 +687,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -722,10 +731,13 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -738,6 +750,9 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -745,19 +760,27 @@
         <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -790,19 +813,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -810,28 +836,41 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -822,7 +822,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
